--- a/Dataset_Cleaned/medications_mod.xlsx
+++ b/Dataset_Cleaned/medications_mod.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\stmcell_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMH\Documents\GitHub\Stem-Cell-Therapy-Success-Prediction\Dataset_Cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF1DFF-CCBD-40C5-A83B-2AD542E29294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9072C30-0A9C-4087-8B8B-4D5E918101A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
